--- a/Data/Xls files and READMEs/historical-Kvitek/Kvitek.Data.SummaryByYr.MASTER.xlsx
+++ b/Data/Xls files and READMEs/historical-Kvitek/Kvitek.Data.SummaryByYr.MASTER.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ole.shelton/GitHub/OCNMS/Data/Xls files and READMEs/historical-Kvitek/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38900" windowHeight="19600"/>
   </bookViews>
   <sheets>
     <sheet name="Kvitek.Data.SummaryByYr.MASTER." sheetId="1" r:id="rId1"/>
@@ -19,6 +24,9 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1077,7 +1085,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="data"/>
@@ -1796,18 +1804,18 @@
   <dimension ref="A1:R476"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1660" topLeftCell="A336" activePane="bottomLeft"/>
+      <pane ySplit="1660" topLeftCell="A198" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="D349" sqref="D349"/>
+      <selection pane="bottomLeft" activeCell="P204" sqref="P204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1871,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1910,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1957,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1992,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2039,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2086,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2133,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2180,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2227,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2274,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2321,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2368,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2415,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2462,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2509,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2556,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2603,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2650,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -2697,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2744,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -2779,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -2814,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2861,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2896,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2931,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2966,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -3013,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -3060,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3107,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -3154,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -3201,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -3248,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -3295,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -3342,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -3389,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -3436,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -3483,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3530,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -3577,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -3624,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -3671,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -3718,7 +3726,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -3753,7 +3761,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -3800,7 +3808,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -3847,7 +3855,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -3882,7 +3890,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -3929,7 +3937,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -3976,7 +3984,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -4023,7 +4031,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -4070,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -4117,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -4164,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -4199,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -4234,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -4269,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -4316,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -4363,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>23</v>
       </c>
@@ -4410,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -4457,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -4504,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -4551,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -4598,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -4645,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -4692,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -4739,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>40</v>
       </c>
@@ -4786,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>40</v>
       </c>
@@ -4833,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -4880,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -4927,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -4974,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -5021,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -5068,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -5115,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -5162,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -5194,7 +5202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -5229,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -5264,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -5299,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -5346,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -5393,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -5440,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -5487,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -5534,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -5581,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -5628,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -5675,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -5722,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>37</v>
       </c>
@@ -5769,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>37</v>
       </c>
@@ -5816,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>37</v>
       </c>
@@ -5863,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>34</v>
       </c>
@@ -5910,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>34</v>
       </c>
@@ -5957,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>34</v>
       </c>
@@ -6004,7 +6012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>34</v>
       </c>
@@ -6051,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>34</v>
       </c>
@@ -6098,7 +6106,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -6145,7 +6153,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -6192,7 +6200,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>34</v>
       </c>
@@ -6239,7 +6247,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>48</v>
       </c>
@@ -6271,7 +6279,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>49</v>
       </c>
@@ -6303,7 +6311,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>26</v>
       </c>
@@ -6350,7 +6358,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>26</v>
       </c>
@@ -6397,7 +6405,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -6444,7 +6452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>50</v>
       </c>
@@ -6476,7 +6484,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>51</v>
       </c>
@@ -6520,7 +6528,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -6564,7 +6572,7 @@
         <v>0.44779999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -6608,7 +6616,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>18</v>
       </c>
@@ -6652,7 +6660,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -6696,7 +6704,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -6743,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -6790,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>51</v>
       </c>
@@ -6834,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -6869,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>23</v>
       </c>
@@ -6916,7 +6924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>23</v>
       </c>
@@ -6963,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>23</v>
       </c>
@@ -7010,7 +7018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>23</v>
       </c>
@@ -7057,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>23</v>
       </c>
@@ -7104,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>23</v>
       </c>
@@ -7151,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>15</v>
       </c>
@@ -7195,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -7242,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -7289,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>39</v>
       </c>
@@ -7336,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>40</v>
       </c>
@@ -7383,7 +7391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>40</v>
       </c>
@@ -7430,7 +7438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -7474,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -7521,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -7568,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>3</v>
       </c>
@@ -7615,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -7662,7 +7670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>48</v>
       </c>
@@ -7694,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>49</v>
       </c>
@@ -7726,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>38</v>
       </c>
@@ -7773,7 +7781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>38</v>
       </c>
@@ -7820,7 +7828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -7852,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -7887,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -7922,7 +7930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>18</v>
       </c>
@@ -7969,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>18</v>
       </c>
@@ -8016,7 +8024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>26</v>
       </c>
@@ -8063,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>26</v>
       </c>
@@ -8110,7 +8118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>26</v>
       </c>
@@ -8157,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>26</v>
       </c>
@@ -8204,7 +8212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>26</v>
       </c>
@@ -8251,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -8298,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -8345,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>37</v>
       </c>
@@ -8392,7 +8400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>37</v>
       </c>
@@ -8439,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>37</v>
       </c>
@@ -8486,7 +8494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>34</v>
       </c>
@@ -8533,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>34</v>
       </c>
@@ -8580,7 +8588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>34</v>
       </c>
@@ -8627,7 +8635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>18</v>
       </c>
@@ -8671,7 +8679,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>50</v>
       </c>
@@ -8703,7 +8711,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>20</v>
       </c>
@@ -8747,7 +8755,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -8794,7 +8802,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -8829,7 +8837,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -8876,7 +8884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -8911,7 +8919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -8958,7 +8966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>5</v>
       </c>
@@ -9005,7 +9013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -9040,7 +9048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>18</v>
       </c>
@@ -9087,7 +9095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -9134,7 +9142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>20</v>
       </c>
@@ -9181,7 +9189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>34</v>
       </c>
@@ -9228,7 +9236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>34</v>
       </c>
@@ -9275,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>34</v>
       </c>
@@ -9322,7 +9330,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>26</v>
       </c>
@@ -9369,7 +9377,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>23</v>
       </c>
@@ -9416,7 +9424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>23</v>
       </c>
@@ -9463,7 +9471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>23</v>
       </c>
@@ -9510,7 +9518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>23</v>
       </c>
@@ -9557,7 +9565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>23</v>
       </c>
@@ -9604,7 +9612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>23</v>
       </c>
@@ -9651,7 +9659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>15</v>
       </c>
@@ -9698,7 +9706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>15</v>
       </c>
@@ -9745,7 +9753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>39</v>
       </c>
@@ -9792,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>40</v>
       </c>
@@ -9839,7 +9847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -9886,7 +9894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -9933,7 +9941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>3</v>
       </c>
@@ -9980,7 +9988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>3</v>
       </c>
@@ -10027,7 +10035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>3</v>
       </c>
@@ -10074,7 +10082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>38</v>
       </c>
@@ -10121,7 +10129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -10153,7 +10161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -10188,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>10</v>
       </c>
@@ -10223,7 +10231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>18</v>
       </c>
@@ -10270,7 +10278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>18</v>
       </c>
@@ -10317,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>26</v>
       </c>
@@ -10364,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>26</v>
       </c>
@@ -10411,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>26</v>
       </c>
@@ -10458,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>26</v>
       </c>
@@ -10505,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>26</v>
       </c>
@@ -10552,7 +10560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>20</v>
       </c>
@@ -10599,7 +10607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>20</v>
       </c>
@@ -10646,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>37</v>
       </c>
@@ -10693,7 +10701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>37</v>
       </c>
@@ -10740,7 +10748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>34</v>
       </c>
@@ -10787,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>34</v>
       </c>
@@ -10834,7 +10842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -10878,7 +10886,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -10919,13 +10927,13 @@
         <v>108</v>
       </c>
       <c r="P203">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="Q203">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>48</v>
       </c>
@@ -10957,7 +10965,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>51</v>
       </c>
@@ -11001,7 +11009,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -11045,7 +11053,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>49</v>
       </c>
@@ -11077,7 +11085,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>40</v>
       </c>
@@ -11124,7 +11132,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>37</v>
       </c>
@@ -11171,7 +11179,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>34</v>
       </c>
@@ -11218,7 +11226,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>13</v>
       </c>
@@ -11253,7 +11261,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>13</v>
       </c>
@@ -11288,7 +11296,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -11335,7 +11343,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>18</v>
       </c>
@@ -11379,7 +11387,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>50</v>
       </c>
@@ -11411,7 +11419,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>20</v>
       </c>
@@ -11455,7 +11463,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>38</v>
       </c>
@@ -11502,7 +11510,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -11537,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>34</v>
       </c>
@@ -11584,7 +11592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>34</v>
       </c>
@@ -11631,7 +11639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:17">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>8</v>
       </c>
@@ -11678,7 +11686,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="222" spans="1:17">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>34</v>
       </c>
@@ -11725,7 +11733,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="223" spans="1:17">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>15</v>
       </c>
@@ -11772,7 +11780,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="224" spans="1:17">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>26</v>
       </c>
@@ -11819,7 +11827,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>13</v>
       </c>
@@ -11854,7 +11862,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>26</v>
       </c>
@@ -11901,7 +11909,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>5</v>
       </c>
@@ -11948,7 +11956,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>20</v>
       </c>
@@ -11995,7 +12003,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>18</v>
       </c>
@@ -12042,7 +12050,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>10</v>
       </c>
@@ -12077,7 +12085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>10</v>
       </c>
@@ -12112,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>20</v>
       </c>
@@ -12159,7 +12167,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>51</v>
       </c>
@@ -12206,7 +12214,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>15</v>
       </c>
@@ -12253,7 +12261,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>15</v>
       </c>
@@ -12300,7 +12308,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>48</v>
       </c>
@@ -12335,7 +12343,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>51</v>
       </c>
@@ -12382,7 +12390,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>5</v>
       </c>
@@ -12429,7 +12437,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>49</v>
       </c>
@@ -12464,7 +12472,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>49</v>
       </c>
@@ -12499,7 +12507,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>50</v>
       </c>
@@ -12534,7 +12542,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>5</v>
       </c>
@@ -12581,7 +12589,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>18</v>
       </c>
@@ -12628,7 +12636,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>18</v>
       </c>
@@ -12675,7 +12683,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>48</v>
       </c>
@@ -12710,7 +12718,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>20</v>
       </c>
@@ -12757,7 +12765,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>50</v>
       </c>
@@ -12792,7 +12800,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>8</v>
       </c>
@@ -12839,7 +12847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>13</v>
       </c>
@@ -12874,7 +12882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>13</v>
       </c>
@@ -12909,7 +12917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>23</v>
       </c>
@@ -12956,7 +12964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>23</v>
       </c>
@@ -13003,7 +13011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>23</v>
       </c>
@@ -13050,7 +13058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>23</v>
       </c>
@@ -13097,7 +13105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>23</v>
       </c>
@@ -13144,7 +13152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>23</v>
       </c>
@@ -13191,7 +13199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:17">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>15</v>
       </c>
@@ -13238,7 +13246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:17">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>15</v>
       </c>
@@ -13285,7 +13293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>39</v>
       </c>
@@ -13332,7 +13340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:17">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>40</v>
       </c>
@@ -13379,7 +13387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:17">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>40</v>
       </c>
@@ -13426,7 +13434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>5</v>
       </c>
@@ -13473,7 +13481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -13520,7 +13528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:17">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>3</v>
       </c>
@@ -13567,7 +13575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:17">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>3</v>
       </c>
@@ -13614,7 +13622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:17">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>3</v>
       </c>
@@ -13661,7 +13669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:17">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>38</v>
       </c>
@@ -13708,7 +13716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:17">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>38</v>
       </c>
@@ -13755,7 +13763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:17">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>10</v>
       </c>
@@ -13790,7 +13798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:17">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>10</v>
       </c>
@@ -13825,7 +13833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:17">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>18</v>
       </c>
@@ -13872,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>18</v>
       </c>
@@ -13919,7 +13927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>26</v>
       </c>
@@ -13966,7 +13974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>26</v>
       </c>
@@ -14013,7 +14021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -14060,7 +14068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>26</v>
       </c>
@@ -14107,7 +14115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>26</v>
       </c>
@@ -14154,7 +14162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>20</v>
       </c>
@@ -14201,7 +14209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>20</v>
       </c>
@@ -14248,7 +14256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>37</v>
       </c>
@@ -14295,7 +14303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>37</v>
       </c>
@@ -14342,7 +14350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>37</v>
       </c>
@@ -14389,7 +14397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>34</v>
       </c>
@@ -14436,7 +14444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>34</v>
       </c>
@@ -14483,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>34</v>
       </c>
@@ -14530,7 +14538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>8</v>
       </c>
@@ -14577,7 +14585,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>8</v>
       </c>
@@ -14624,7 +14632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>13</v>
       </c>
@@ -14659,7 +14667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:17">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>15</v>
       </c>
@@ -14706,7 +14714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:17">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>5</v>
       </c>
@@ -14753,7 +14761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:17">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>10</v>
       </c>
@@ -14788,7 +14796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:17">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>18</v>
       </c>
@@ -14835,7 +14843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:17">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>26</v>
       </c>
@@ -14882,7 +14890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:17">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>26</v>
       </c>
@@ -14929,7 +14937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:17">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>20</v>
       </c>
@@ -14976,7 +14984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:17">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>34</v>
       </c>
@@ -15023,7 +15031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:17">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>34</v>
       </c>
@@ -15070,7 +15078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:17">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>34</v>
       </c>
@@ -15117,7 +15125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:17">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>8</v>
       </c>
@@ -15167,7 +15175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:17">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>15</v>
       </c>
@@ -15217,7 +15225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:17">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>5</v>
       </c>
@@ -15267,7 +15275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:17">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>10</v>
       </c>
@@ -15305,7 +15313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:17">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>18</v>
       </c>
@@ -15355,7 +15363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:17">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>26</v>
       </c>
@@ -15405,7 +15413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:18">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>26</v>
       </c>
@@ -15455,7 +15463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:18">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>34</v>
       </c>
@@ -15505,7 +15513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:18">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>13</v>
       </c>
@@ -15543,7 +15551,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="308" spans="1:18">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>34</v>
       </c>
@@ -15593,7 +15601,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="309" spans="1:18">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>34</v>
       </c>
@@ -15643,7 +15651,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="310" spans="1:18">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>20</v>
       </c>
@@ -15693,7 +15701,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:18">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>50</v>
       </c>
@@ -15728,7 +15736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:18">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>50</v>
       </c>
@@ -15763,7 +15771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:18">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>50</v>
       </c>
@@ -15798,7 +15806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:18">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>50</v>
       </c>
@@ -15833,7 +15841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:18">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>8</v>
       </c>
@@ -15886,7 +15894,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="316" spans="1:18">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>51</v>
       </c>
@@ -15933,7 +15941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:18">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>51</v>
       </c>
@@ -15980,7 +15988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:18">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>51</v>
       </c>
@@ -16027,7 +16035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:18">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>15</v>
       </c>
@@ -16074,7 +16082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:18">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>15</v>
       </c>
@@ -16121,7 +16129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:18">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>15</v>
       </c>
@@ -16168,7 +16176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:18">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>15</v>
       </c>
@@ -16221,7 +16229,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="323" spans="1:18">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>5</v>
       </c>
@@ -16268,7 +16276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:18">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>5</v>
       </c>
@@ -16315,7 +16323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:18">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>5</v>
       </c>
@@ -16362,7 +16370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:18">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>5</v>
       </c>
@@ -16409,7 +16417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:18">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>5</v>
       </c>
@@ -16456,7 +16464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:18">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>3</v>
       </c>
@@ -16509,7 +16517,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="329" spans="1:18">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>48</v>
       </c>
@@ -16544,7 +16552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:18">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>48</v>
       </c>
@@ -16579,7 +16587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:18">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>48</v>
       </c>
@@ -16614,7 +16622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:18">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>48</v>
       </c>
@@ -16649,7 +16657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:18">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>49</v>
       </c>
@@ -16684,7 +16692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:18">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>49</v>
       </c>
@@ -16719,7 +16727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:18">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>49</v>
       </c>
@@ -16754,7 +16762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:18">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>10</v>
       </c>
@@ -16789,7 +16797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:17">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>10</v>
       </c>
@@ -16824,7 +16832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:17">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>10</v>
       </c>
@@ -16859,7 +16867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:17">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>10</v>
       </c>
@@ -16894,7 +16902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:17">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>10</v>
       </c>
@@ -16929,7 +16937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:17">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>10</v>
       </c>
@@ -16964,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:17">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>10</v>
       </c>
@@ -16999,7 +17007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:17">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>10</v>
       </c>
@@ -17034,7 +17042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:17">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>18</v>
       </c>
@@ -17081,7 +17089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:17">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>18</v>
       </c>
@@ -17128,7 +17136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:17">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>18</v>
       </c>
@@ -17175,7 +17183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:17">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>20</v>
       </c>
@@ -17222,7 +17230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:17">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>20</v>
       </c>
@@ -17269,7 +17277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:17">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>51</v>
       </c>
@@ -17316,7 +17324,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="350" spans="1:17">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>51</v>
       </c>
@@ -17363,7 +17371,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="351" spans="1:17">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>15</v>
       </c>
@@ -17410,7 +17418,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="352" spans="1:17">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>15</v>
       </c>
@@ -17457,7 +17465,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="353" spans="1:17">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>15</v>
       </c>
@@ -17504,7 +17512,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="354" spans="1:17">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>5</v>
       </c>
@@ -17551,7 +17559,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="355" spans="1:17">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>48</v>
       </c>
@@ -17586,7 +17594,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="356" spans="1:17">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>49</v>
       </c>
@@ -17621,7 +17629,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="357" spans="1:17">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>18</v>
       </c>
@@ -17668,7 +17676,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="358" spans="1:17">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>18</v>
       </c>
@@ -17715,7 +17723,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="359" spans="1:17">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>20</v>
       </c>
@@ -17762,7 +17770,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="360" spans="1:17">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>20</v>
       </c>
@@ -17809,7 +17817,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="361" spans="1:17">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>50</v>
       </c>
@@ -17844,7 +17852,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="362" spans="1:17">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>51</v>
       </c>
@@ -17891,7 +17899,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="363" spans="1:17">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>15</v>
       </c>
@@ -17938,7 +17946,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="364" spans="1:17">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>15</v>
       </c>
@@ -17985,7 +17993,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="365" spans="1:17">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>5</v>
       </c>
@@ -18032,7 +18040,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="366" spans="1:17">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>5</v>
       </c>
@@ -18079,7 +18087,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="367" spans="1:17">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>48</v>
       </c>
@@ -18114,7 +18122,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="368" spans="1:17">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>18</v>
       </c>
@@ -18161,7 +18169,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="369" spans="1:17">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>20</v>
       </c>
@@ -18208,7 +18216,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="370" spans="1:17">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>51</v>
       </c>
@@ -18255,7 +18263,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="371" spans="1:17">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>51</v>
       </c>
@@ -18302,7 +18310,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="372" spans="1:17">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>49</v>
       </c>
@@ -18337,7 +18345,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="373" spans="1:17">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>49</v>
       </c>
@@ -18372,7 +18380,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="374" spans="1:17">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>10</v>
       </c>
@@ -18407,7 +18415,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="375" spans="1:17">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>18</v>
       </c>
@@ -18454,7 +18462,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="376" spans="1:17">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>20</v>
       </c>
@@ -18501,7 +18509,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="377" spans="1:17">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>50</v>
       </c>
@@ -18536,7 +18544,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="378" spans="1:17">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>15</v>
       </c>
@@ -18583,7 +18591,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="379" spans="1:17">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>5</v>
       </c>
@@ -18630,7 +18638,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="380" spans="1:17">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>48</v>
       </c>
@@ -18665,7 +18673,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="381" spans="1:17">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>49</v>
       </c>
@@ -18700,7 +18708,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="382" spans="1:17">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>20</v>
       </c>
@@ -18747,7 +18755,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="383" spans="1:17">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>50</v>
       </c>
@@ -18782,7 +18790,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="384" spans="1:17">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>51</v>
       </c>
@@ -18829,7 +18837,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="385" spans="1:18">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>48</v>
       </c>
@@ -18864,7 +18872,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="386" spans="1:18">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>48</v>
       </c>
@@ -18899,7 +18907,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="387" spans="1:18">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>49</v>
       </c>
@@ -18934,7 +18942,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="388" spans="1:18">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>49</v>
       </c>
@@ -18969,7 +18977,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="389" spans="1:18">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>18</v>
       </c>
@@ -19016,7 +19024,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="390" spans="1:18">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>20</v>
       </c>
@@ -19063,7 +19071,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="391" spans="1:18">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>50</v>
       </c>
@@ -19098,7 +19106,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="392" spans="1:18">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>18</v>
       </c>
@@ -19145,7 +19153,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="393" spans="1:18">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>3</v>
       </c>
@@ -19198,7 +19206,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="394" spans="1:18">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>34</v>
       </c>
@@ -19251,7 +19259,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="395" spans="1:18">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>20</v>
       </c>
@@ -19298,7 +19306,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="396" spans="1:18">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>13</v>
       </c>
@@ -19339,7 +19347,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="397" spans="1:18">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>23</v>
       </c>
@@ -19392,7 +19400,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="398" spans="1:18">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>20</v>
       </c>
@@ -19445,7 +19453,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="399" spans="1:18">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>50</v>
       </c>
@@ -19480,7 +19488,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="400" spans="1:18">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>23</v>
       </c>
@@ -19533,7 +19541,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="401" spans="1:18">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>23</v>
       </c>
@@ -19586,7 +19594,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="402" spans="1:18">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>40</v>
       </c>
@@ -19639,7 +19647,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="403" spans="1:18">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>34</v>
       </c>
@@ -19692,7 +19700,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="404" spans="1:18">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>34</v>
       </c>
@@ -19745,7 +19753,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="405" spans="1:18">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>40</v>
       </c>
@@ -19798,7 +19806,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="406" spans="1:18">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>10</v>
       </c>
@@ -19839,7 +19847,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="407" spans="1:18">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>39</v>
       </c>
@@ -19892,7 +19900,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="408" spans="1:18">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>18</v>
       </c>
@@ -19945,7 +19953,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="409" spans="1:18">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>26</v>
       </c>
@@ -19998,7 +20006,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="410" spans="1:18">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>5</v>
       </c>
@@ -20051,7 +20059,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="411" spans="1:18">
+    <row r="411" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>37</v>
       </c>
@@ -20104,7 +20112,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="412" spans="1:18">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>26</v>
       </c>
@@ -20157,7 +20165,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="413" spans="1:18">
+    <row r="413" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>37</v>
       </c>
@@ -20210,7 +20218,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="414" spans="1:18">
+    <row r="414" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>38</v>
       </c>
@@ -20263,7 +20271,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="415" spans="1:18">
+    <row r="415" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>38</v>
       </c>
@@ -20316,7 +20324,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="416" spans="1:18">
+    <row r="416" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>37</v>
       </c>
@@ -20369,7 +20377,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="417" spans="1:17">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>8</v>
       </c>
@@ -20416,7 +20424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:17">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>8</v>
       </c>
@@ -20463,7 +20471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:17">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>8</v>
       </c>
@@ -20510,7 +20518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:17">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>13</v>
       </c>
@@ -20545,7 +20553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:17">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>13</v>
       </c>
@@ -20580,7 +20588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:17">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>13</v>
       </c>
@@ -20615,7 +20623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:17">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>23</v>
       </c>
@@ -20662,7 +20670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:17">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>23</v>
       </c>
@@ -20709,7 +20717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:17">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>23</v>
       </c>
@@ -20756,7 +20764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:17">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>23</v>
       </c>
@@ -20803,7 +20811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:17">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>15</v>
       </c>
@@ -20847,7 +20855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:17">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>15</v>
       </c>
@@ -20894,7 +20902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:17">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>15</v>
       </c>
@@ -20941,7 +20949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:17">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>15</v>
       </c>
@@ -20988,7 +20996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:17">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>39</v>
       </c>
@@ -21035,7 +21043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:17">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>40</v>
       </c>
@@ -21082,7 +21090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:17">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>40</v>
       </c>
@@ -21129,7 +21137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:17">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>5</v>
       </c>
@@ -21176,7 +21184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:17">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>5</v>
       </c>
@@ -21223,7 +21231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:17">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>5</v>
       </c>
@@ -21270,7 +21278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:17">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>3</v>
       </c>
@@ -21317,7 +21325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:17">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>3</v>
       </c>
@@ -21364,7 +21372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:17">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>38</v>
       </c>
@@ -21411,7 +21419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:17">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>38</v>
       </c>
@@ -21458,7 +21466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:17">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>10</v>
       </c>
@@ -21493,7 +21501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:17">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>10</v>
       </c>
@@ -21528,7 +21536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:17">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>10</v>
       </c>
@@ -21563,7 +21571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:17">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>18</v>
       </c>
@@ -21610,7 +21618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:17">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>18</v>
       </c>
@@ -21657,7 +21665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:17">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>18</v>
       </c>
@@ -21704,7 +21712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:17">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>26</v>
       </c>
@@ -21751,7 +21759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:17">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>20</v>
       </c>
@@ -21798,7 +21806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:17">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>20</v>
       </c>
@@ -21845,7 +21853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:17">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>20</v>
       </c>
@@ -21892,7 +21900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:17">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>37</v>
       </c>
@@ -21939,7 +21947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:17">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>37</v>
       </c>
@@ -21986,7 +21994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:17">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>37</v>
       </c>
@@ -22033,7 +22041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:17">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>34</v>
       </c>
@@ -22080,7 +22088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:17">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>34</v>
       </c>
@@ -22127,7 +22135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:17">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>34</v>
       </c>
@@ -22174,7 +22182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:17">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>34</v>
       </c>
@@ -22221,7 +22229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:17">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>34</v>
       </c>
@@ -22268,7 +22276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:17">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>34</v>
       </c>
@@ -22315,7 +22323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:17">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>26</v>
       </c>
@@ -22362,7 +22370,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="461" spans="1:17">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>50</v>
       </c>
@@ -22394,7 +22402,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="462" spans="1:17">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>26</v>
       </c>
@@ -22441,7 +22449,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="463" spans="1:17">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>18</v>
       </c>
@@ -22485,7 +22493,7 @@
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="464" spans="1:17">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>23</v>
       </c>
@@ -22532,7 +22540,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="465" spans="1:17">
+    <row r="465" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>20</v>
       </c>
@@ -22576,7 +22584,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="466" spans="1:17">
+    <row r="466" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>26</v>
       </c>
@@ -22623,7 +22631,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="467" spans="1:17">
+    <row r="467" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>3</v>
       </c>
@@ -22670,7 +22678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:17">
+    <row r="468" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>51</v>
       </c>
@@ -22714,7 +22722,7 @@
         <v>2.6110000000000002</v>
       </c>
     </row>
-    <row r="469" spans="1:17">
+    <row r="469" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>5</v>
       </c>
@@ -22758,7 +22766,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="470" spans="1:17">
+    <row r="470" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>26</v>
       </c>
@@ -22805,7 +22813,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="471" spans="1:17">
+    <row r="471" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>10</v>
       </c>
@@ -22837,7 +22845,7 @@
         <v>5.0220000000000002</v>
       </c>
     </row>
-    <row r="472" spans="1:17">
+    <row r="472" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>48</v>
       </c>
@@ -22869,7 +22877,7 @@
         <v>9.36</v>
       </c>
     </row>
-    <row r="473" spans="1:17">
+    <row r="473" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>49</v>
       </c>
@@ -22901,7 +22909,7 @@
         <v>9.93</v>
       </c>
     </row>
-    <row r="474" spans="1:17">
+    <row r="474" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>23</v>
       </c>
@@ -22948,7 +22956,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="475" spans="1:17">
+    <row r="475" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>26</v>
       </c>
@@ -22995,7 +23003,7 @@
         <v>15.21</v>
       </c>
     </row>
-    <row r="476" spans="1:17">
+    <row r="476" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>26</v>
       </c>
@@ -23053,11 +23061,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -23069,14 +23072,14 @@
       <selection sqref="A1:Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12.1640625" customWidth="1"/>
     <col min="24" max="24" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="42">
+    <row r="1" spans="1:25" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23153,7 +23156,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -23230,7 +23233,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -23307,7 +23310,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -23372,7 +23375,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -23437,7 +23440,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -23514,7 +23517,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -23591,7 +23594,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -23668,7 +23671,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -23745,7 +23748,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -23822,7 +23825,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -23899,7 +23902,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -23976,7 +23979,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -24053,13 +24056,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
     </row>
-    <row r="17" spans="3:9">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -24068,17 +24071,17 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="3:9">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="3:9">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="3:9">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -24087,7 +24090,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="3:9">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -24096,7 +24099,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="3:9">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -24105,17 +24108,17 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="3:9">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="3:9">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="3:9">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -24124,7 +24127,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="3:9">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -24133,7 +24136,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="3:9">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -24142,7 +24145,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="3:9">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -24151,7 +24154,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="3:9">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -24160,7 +24163,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="3:9">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -24169,7 +24172,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="3:9">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -24178,7 +24181,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="3:9">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -24187,7 +24190,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="3:9">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -24196,7 +24199,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="3:9">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -24208,11 +24211,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -24224,7 +24222,7 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -24235,7 +24233,7 @@
     <col min="24" max="24" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24309,7 +24307,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -24383,7 +24381,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -24457,7 +24455,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -24519,7 +24517,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -24593,7 +24591,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -24667,7 +24665,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -24729,7 +24727,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -24803,7 +24801,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -24877,7 +24875,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -24939,67 +24937,67 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="17" spans="4:10">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="4:10">
+    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="4:10">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="4:10">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="4:10">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="4:10">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="1"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="4:10">
+    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="4:10">
+    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="30" spans="4:10">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="4:10">
+    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -25008,10 +25006,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>